--- a/biology/Médecine/Lenvatinib/Lenvatinib.xlsx
+++ b/biology/Médecine/Lenvatinib/Lenvatinib.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le lenvatinib (ou E7080) est une molécule inhibitrice de plusieurs kinases (dont la tyrosine kinase), en cours de test dans certains cancers.
 </t>
@@ -511,9 +523,11 @@
           <t>Cibles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il se fixe en les inhibant sur plusieurs récepteurs de kinase dont le facteur de croissance de l’endothélium vasculaire, le facteur de croissance des fibroblastes, le Stem Cell Factor[1], inhibant en particulier l'angiogenèse tumorale[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se fixe en les inhibant sur plusieurs récepteurs de kinase dont le facteur de croissance de l’endothélium vasculaire, le facteur de croissance des fibroblastes, le Stem Cell Factor, inhibant en particulier l'angiogenèse tumorale.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Efficacité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il augmente la survie des cancers de la thyroïde résistant à l'iode radioactif, avec cependant de nombreux effets secondaires (diarrhée, fatigue, nausées...)[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il augmente la survie des cancers de la thyroïde résistant à l'iode radioactif, avec cependant de nombreux effets secondaires (diarrhée, fatigue, nausées...).
 </t>
         </is>
       </c>
